--- a/GE_Detor2022_HardnessAndDuctility.xlsx
+++ b/GE_Detor2022_HardnessAndDuctility.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/PycharmProjects/ULTERA-contribute-Detor2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EB0E06-9989-C34B-9A09-6C56F739FD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34FD5AD-D9A3-514F-8309-DA8022DF569E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="24240" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="242">
   <si>
     <t>Name:</t>
   </si>
@@ -145,9 +156,6 @@
   </si>
   <si>
     <t>Scratch (NOT UPLOADED)</t>
-  </si>
-  <si>
-    <t>UTS in lb/in^2</t>
   </si>
   <si>
     <t>Temperature in F</t>
@@ -579,9 +587,6 @@
     <t>hardness</t>
   </si>
   <si>
-    <t>GPa</t>
-  </si>
-  <si>
     <t>10.1016/j.dib.2022.108582</t>
   </si>
   <si>
@@ -844,6 +849,9 @@
   </si>
   <si>
     <t>86</t>
+  </si>
+  <si>
+    <t>GPa Hardness</t>
   </si>
 </sst>
 </file>
@@ -1508,32 +1516,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1586,8 +1570,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1873,7 +1881,7 @@
   <dimension ref="A1:T430"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="O170" sqref="O170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1907,41 +1915,41 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
       <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
+      <c r="B3" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
       <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1957,46 +1965,46 @@
         <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="43" t="s">
+      <c r="F5" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="43" t="s">
+      <c r="H5" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="37" t="s">
-        <v>50</v>
+      <c r="N5" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="56" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -2006,19 +2014,19 @@
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="38"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="57"/>
     </row>
     <row r="7" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -2028,22 +2036,22 @@
         <v>18</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" s="6">
         <v>298</v>
@@ -2052,59 +2060,59 @@
         <v>33</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="58"/>
       <c r="P7" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q7" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="23" t="s">
+      <c r="R7" s="23" t="s">
         <v>41</v>
-      </c>
-      <c r="R7" s="23" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="60" t="s">
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="61"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="P8" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="42"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="61"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2129,7 +2137,7 @@
         <v>13</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>20</v>
@@ -2138,10 +2146,10 @@
         <v>21</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M9" s="26" t="s">
         <v>15</v>
@@ -2168,26 +2176,26 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G10" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I10" s="35">
         <v>298</v>
@@ -2197,37 +2205,37 @@
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M10" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="N10" s="20" t="s">
         <v>148</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I11" s="35">
         <v>298</v>
@@ -2237,37 +2245,37 @@
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M11" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="N11" s="20" t="s">
         <v>148</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G12" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I12" s="35">
         <v>298</v>
@@ -2277,37 +2285,37 @@
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N12" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G13" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I13" s="35">
         <v>298</v>
@@ -2317,38 +2325,38 @@
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N13" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I14" s="35">
         <v>298</v>
@@ -2358,38 +2366,38 @@
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N14" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O14" s="20"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G15" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I15" s="35">
         <v>298</v>
@@ -2399,38 +2407,38 @@
       </c>
       <c r="K15" s="32"/>
       <c r="L15" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N15" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O15" s="20"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G16" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I16" s="35">
         <v>298</v>
@@ -2440,38 +2448,38 @@
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N16" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O16" s="20"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G17" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I17" s="35">
         <v>298</v>
@@ -2481,37 +2489,37 @@
       </c>
       <c r="K17" s="32"/>
       <c r="L17" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N17" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G18" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I18" s="35">
         <v>298</v>
@@ -2521,37 +2529,37 @@
       </c>
       <c r="K18" s="32"/>
       <c r="L18" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N18" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G19" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I19" s="35">
         <v>298</v>
@@ -2561,37 +2569,37 @@
       </c>
       <c r="K19" s="32"/>
       <c r="L19" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N19" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G20" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I20" s="35">
         <v>298</v>
@@ -2601,37 +2609,37 @@
       </c>
       <c r="K20" s="32"/>
       <c r="L20" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N20" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G21" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I21" s="35">
         <v>298</v>
@@ -2641,37 +2649,37 @@
       </c>
       <c r="K21" s="32"/>
       <c r="L21" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M21" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N21" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G22" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I22" s="35">
         <v>298</v>
@@ -2681,37 +2689,37 @@
       </c>
       <c r="K22" s="32"/>
       <c r="L22" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N22" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I23" s="35">
         <v>298</v>
@@ -2721,37 +2729,37 @@
       </c>
       <c r="K23" s="32"/>
       <c r="L23" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N23" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="33"/>
       <c r="D24" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I24" s="35">
         <v>298</v>
@@ -2761,37 +2769,37 @@
       </c>
       <c r="K24" s="32"/>
       <c r="L24" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N24" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I25" s="35">
         <v>298</v>
@@ -2801,37 +2809,37 @@
       </c>
       <c r="K25" s="32"/>
       <c r="L25" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N25" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="36" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G26" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I26" s="35">
         <v>298</v>
@@ -2841,37 +2849,37 @@
       </c>
       <c r="K26" s="32"/>
       <c r="L26" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N26" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G27" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I27" s="35">
         <v>298</v>
@@ -2881,37 +2889,37 @@
       </c>
       <c r="K27" s="32"/>
       <c r="L27" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N27" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G28" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I28" s="35">
         <v>298</v>
@@ -2921,37 +2929,37 @@
       </c>
       <c r="K28" s="32"/>
       <c r="L28" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N28" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G29" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I29" s="35">
         <v>298</v>
@@ -2961,37 +2969,37 @@
       </c>
       <c r="K29" s="32"/>
       <c r="L29" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N29" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I30" s="35">
         <v>298</v>
@@ -3001,37 +3009,37 @@
       </c>
       <c r="K30" s="32"/>
       <c r="L30" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N30" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G31" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H31" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I31" s="35">
         <v>298</v>
@@ -3041,37 +3049,37 @@
       </c>
       <c r="K31" s="32"/>
       <c r="L31" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N31" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I32" s="35">
         <v>298</v>
@@ -3081,37 +3089,37 @@
       </c>
       <c r="K32" s="32"/>
       <c r="L32" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N32" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="36" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" s="33"/>
       <c r="D33" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G33" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I33" s="35">
         <v>298</v>
@@ -3121,37 +3129,37 @@
       </c>
       <c r="K33" s="32"/>
       <c r="L33" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N33" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H34" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I34" s="35">
         <v>298</v>
@@ -3161,37 +3169,37 @@
       </c>
       <c r="K34" s="32"/>
       <c r="L34" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N34" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="36" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G35" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I35" s="35">
         <v>298</v>
@@ -3201,37 +3209,37 @@
       </c>
       <c r="K35" s="32"/>
       <c r="L35" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N35" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="33"/>
       <c r="D36" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G36" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H36" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I36" s="35">
         <v>298</v>
@@ -3241,37 +3249,37 @@
       </c>
       <c r="K36" s="32"/>
       <c r="L36" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N36" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G37" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H37" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I37" s="35">
         <v>298</v>
@@ -3281,37 +3289,37 @@
       </c>
       <c r="K37" s="32"/>
       <c r="L37" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N37" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G38" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H38" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I38" s="35">
         <v>298</v>
@@ -3321,37 +3329,37 @@
       </c>
       <c r="K38" s="32"/>
       <c r="L38" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N38" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="33"/>
       <c r="D39" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G39" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H39" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I39" s="35">
         <v>298</v>
@@ -3361,37 +3369,37 @@
       </c>
       <c r="K39" s="32"/>
       <c r="L39" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N39" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="33"/>
       <c r="D40" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G40" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H40" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I40" s="35">
         <v>298</v>
@@ -3401,37 +3409,37 @@
       </c>
       <c r="K40" s="32"/>
       <c r="L40" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N40" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G41" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H41" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I41" s="35">
         <v>298</v>
@@ -3441,37 +3449,37 @@
       </c>
       <c r="K41" s="32"/>
       <c r="L41" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M41" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N41" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="36" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G42" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H42" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I42" s="35">
         <v>298</v>
@@ -3481,37 +3489,37 @@
       </c>
       <c r="K42" s="32"/>
       <c r="L42" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N42" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C43" s="33"/>
       <c r="D43" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G43" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H43" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I43" s="35">
         <v>298</v>
@@ -3521,37 +3529,37 @@
       </c>
       <c r="K43" s="32"/>
       <c r="L43" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M43" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N43" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="36" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="33"/>
       <c r="D44" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G44" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H44" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I44" s="35">
         <v>298</v>
@@ -3561,37 +3569,37 @@
       </c>
       <c r="K44" s="32"/>
       <c r="L44" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N44" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G45" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H45" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I45" s="35">
         <v>298</v>
@@ -3601,37 +3609,37 @@
       </c>
       <c r="K45" s="32"/>
       <c r="L45" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N45" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C46" s="33"/>
       <c r="D46" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F46" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G46" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H46" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I46" s="35">
         <v>298</v>
@@ -3641,37 +3649,37 @@
       </c>
       <c r="K46" s="32"/>
       <c r="L46" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N46" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G47" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H47" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I47" s="35">
         <v>298</v>
@@ -3681,37 +3689,37 @@
       </c>
       <c r="K47" s="32"/>
       <c r="L47" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N47" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="33"/>
       <c r="D48" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G48" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H48" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I48" s="35">
         <v>298</v>
@@ -3721,37 +3729,37 @@
       </c>
       <c r="K48" s="32"/>
       <c r="L48" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M48" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N48" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" s="33"/>
       <c r="D49" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F49" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G49" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I49" s="35">
         <v>298</v>
@@ -3761,37 +3769,37 @@
       </c>
       <c r="K49" s="32"/>
       <c r="L49" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M49" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N49" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G50" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H50" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I50" s="35">
         <v>298</v>
@@ -3801,37 +3809,37 @@
       </c>
       <c r="K50" s="32"/>
       <c r="L50" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M50" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N50" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C51" s="33"/>
       <c r="D51" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G51" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H51" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I51" s="35">
         <v>298</v>
@@ -3841,37 +3849,37 @@
       </c>
       <c r="K51" s="32"/>
       <c r="L51" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M51" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N51" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="33"/>
       <c r="D52" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G52" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H52" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I52" s="35">
         <v>298</v>
@@ -3881,37 +3889,37 @@
       </c>
       <c r="K52" s="32"/>
       <c r="L52" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N52" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C53" s="33"/>
       <c r="D53" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G53" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H53" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I53" s="35">
         <v>298</v>
@@ -3921,37 +3929,37 @@
       </c>
       <c r="K53" s="32"/>
       <c r="L53" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N53" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C54" s="33"/>
       <c r="D54" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G54" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H54" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I54" s="35">
         <v>298</v>
@@ -3961,37 +3969,37 @@
       </c>
       <c r="K54" s="32"/>
       <c r="L54" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N54" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="36" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C55" s="33"/>
       <c r="D55" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G55" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H55" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I55" s="35">
         <v>298</v>
@@ -4001,37 +4009,37 @@
       </c>
       <c r="K55" s="32"/>
       <c r="L55" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M55" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N55" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="36" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C56" s="33"/>
       <c r="D56" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F56" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G56" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H56" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I56" s="35">
         <v>298</v>
@@ -4041,37 +4049,37 @@
       </c>
       <c r="K56" s="32"/>
       <c r="L56" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N56" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="36" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C57" s="33"/>
       <c r="D57" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F57" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G57" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H57" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I57" s="35">
         <v>298</v>
@@ -4081,37 +4089,37 @@
       </c>
       <c r="K57" s="32"/>
       <c r="L57" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N57" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="36" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G58" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H58" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I58" s="35">
         <v>298</v>
@@ -4121,37 +4129,37 @@
       </c>
       <c r="K58" s="32"/>
       <c r="L58" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N58" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C59" s="33"/>
       <c r="D59" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G59" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H59" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I59" s="35">
         <v>298</v>
@@ -4161,37 +4169,37 @@
       </c>
       <c r="K59" s="32"/>
       <c r="L59" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N59" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C60" s="33"/>
       <c r="D60" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F60" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G60" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H60" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I60" s="35">
         <v>298</v>
@@ -4201,37 +4209,37 @@
       </c>
       <c r="K60" s="32"/>
       <c r="L60" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M60" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N60" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C61" s="33"/>
       <c r="D61" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F61" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G61" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H61" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I61" s="35">
         <v>298</v>
@@ -4241,37 +4249,37 @@
       </c>
       <c r="K61" s="32"/>
       <c r="L61" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N61" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="36" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C62" s="33"/>
       <c r="D62" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F62" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G62" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H62" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I62" s="35">
         <v>298</v>
@@ -4281,37 +4289,37 @@
       </c>
       <c r="K62" s="32"/>
       <c r="L62" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M62" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N62" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C63" s="33"/>
       <c r="D63" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F63" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G63" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H63" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I63" s="35">
         <v>298</v>
@@ -4321,37 +4329,37 @@
       </c>
       <c r="K63" s="32"/>
       <c r="L63" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N63" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C64" s="33"/>
       <c r="D64" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F64" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G64" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H64" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I64" s="35">
         <v>298</v>
@@ -4361,37 +4369,37 @@
       </c>
       <c r="K64" s="32"/>
       <c r="L64" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N64" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C65" s="33"/>
       <c r="D65" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F65" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G65" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H65" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I65" s="35">
         <v>298</v>
@@ -4401,37 +4409,37 @@
       </c>
       <c r="K65" s="32"/>
       <c r="L65" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M65" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N65" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C66" s="33"/>
       <c r="D66" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F66" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G66" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H66" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I66" s="35">
         <v>298</v>
@@ -4441,37 +4449,37 @@
       </c>
       <c r="K66" s="32"/>
       <c r="L66" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N66" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="36" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C67" s="33"/>
       <c r="D67" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F67" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G67" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H67" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I67" s="35">
         <v>298</v>
@@ -4481,37 +4489,37 @@
       </c>
       <c r="K67" s="32"/>
       <c r="L67" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M67" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N67" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="36" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C68" s="33"/>
       <c r="D68" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F68" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G68" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H68" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I68" s="35">
         <v>298</v>
@@ -4521,37 +4529,37 @@
       </c>
       <c r="K68" s="32"/>
       <c r="L68" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M68" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N68" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C69" s="33"/>
       <c r="D69" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F69" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G69" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H69" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I69" s="35">
         <v>298</v>
@@ -4561,37 +4569,37 @@
       </c>
       <c r="K69" s="32"/>
       <c r="L69" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M69" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N69" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C70" s="33"/>
       <c r="D70" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F70" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G70" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H70" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I70" s="35">
         <v>298</v>
@@ -4601,37 +4609,37 @@
       </c>
       <c r="K70" s="32"/>
       <c r="L70" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M70" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N70" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C71" s="33"/>
       <c r="D71" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F71" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G71" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H71" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I71" s="35">
         <v>298</v>
@@ -4641,37 +4649,37 @@
       </c>
       <c r="K71" s="32"/>
       <c r="L71" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M71" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N71" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B72" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C72" s="33"/>
       <c r="D72" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F72" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G72" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H72" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I72" s="35">
         <v>298</v>
@@ -4681,37 +4689,37 @@
       </c>
       <c r="K72" s="32"/>
       <c r="L72" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M72" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N72" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C73" s="33"/>
       <c r="D73" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F73" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G73" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H73" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I73" s="35">
         <v>298</v>
@@ -4721,37 +4729,37 @@
       </c>
       <c r="K73" s="32"/>
       <c r="L73" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M73" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N73" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="36" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C74" s="33"/>
       <c r="D74" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F74" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G74" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H74" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I74" s="35">
         <v>298</v>
@@ -4761,37 +4769,37 @@
       </c>
       <c r="K74" s="32"/>
       <c r="L74" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M74" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N74" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C75" s="33"/>
       <c r="D75" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F75" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G75" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H75" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I75" s="35">
         <v>298</v>
@@ -4801,37 +4809,37 @@
       </c>
       <c r="K75" s="32"/>
       <c r="L75" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M75" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N75" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="36" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B76" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C76" s="33"/>
       <c r="D76" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F76" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G76" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H76" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I76" s="35">
         <v>298</v>
@@ -4841,37 +4849,37 @@
       </c>
       <c r="K76" s="32"/>
       <c r="L76" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M76" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N76" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="36" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C77" s="33"/>
       <c r="D77" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F77" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G77" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H77" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I77" s="35">
         <v>298</v>
@@ -4881,37 +4889,37 @@
       </c>
       <c r="K77" s="32"/>
       <c r="L77" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M77" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N77" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="36" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C78" s="33"/>
       <c r="D78" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F78" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G78" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H78" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I78" s="35">
         <v>298</v>
@@ -4921,37 +4929,37 @@
       </c>
       <c r="K78" s="32"/>
       <c r="L78" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M78" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N78" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="36" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C79" s="33"/>
       <c r="D79" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F79" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G79" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H79" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I79" s="35">
         <v>298</v>
@@ -4961,37 +4969,37 @@
       </c>
       <c r="K79" s="32"/>
       <c r="L79" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M79" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N79" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C80" s="33"/>
       <c r="D80" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F80" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G80" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H80" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I80" s="35">
         <v>298</v>
@@ -5001,37 +5009,37 @@
       </c>
       <c r="K80" s="32"/>
       <c r="L80" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M80" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N80" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="36" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C81" s="33"/>
       <c r="D81" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F81" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G81" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H81" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I81" s="35">
         <v>298</v>
@@ -5041,37 +5049,37 @@
       </c>
       <c r="K81" s="32"/>
       <c r="L81" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M81" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N81" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="36" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C82" s="33"/>
       <c r="D82" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F82" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G82" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H82" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I82" s="35">
         <v>298</v>
@@ -5081,37 +5089,37 @@
       </c>
       <c r="K82" s="32"/>
       <c r="L82" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M82" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N82" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="36" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B83" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C83" s="33"/>
       <c r="D83" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F83" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G83" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H83" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I83" s="35">
         <v>298</v>
@@ -5121,37 +5129,37 @@
       </c>
       <c r="K83" s="32"/>
       <c r="L83" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M83" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N83" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="36" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B84" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C84" s="33"/>
       <c r="D84" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F84" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G84" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H84" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I84" s="35">
         <v>298</v>
@@ -5161,37 +5169,37 @@
       </c>
       <c r="K84" s="32"/>
       <c r="L84" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M84" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N84" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B85" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C85" s="33"/>
       <c r="D85" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F85" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G85" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H85" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I85" s="35">
         <v>298</v>
@@ -5201,37 +5209,37 @@
       </c>
       <c r="K85" s="32"/>
       <c r="L85" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M85" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N85" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="36" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B86" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C86" s="33"/>
       <c r="D86" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F86" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G86" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H86" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I86" s="35">
         <v>298</v>
@@ -5241,37 +5249,37 @@
       </c>
       <c r="K86" s="32"/>
       <c r="L86" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M86" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N86" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B87" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C87" s="33"/>
       <c r="D87" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F87" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G87" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H87" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I87" s="35">
         <v>298</v>
@@ -5281,37 +5289,37 @@
       </c>
       <c r="K87" s="32"/>
       <c r="L87" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M87" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N87" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="36" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B88" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C88" s="33"/>
       <c r="D88" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F88" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G88" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H88" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I88" s="35">
         <v>298</v>
@@ -5321,37 +5329,37 @@
       </c>
       <c r="K88" s="32"/>
       <c r="L88" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M88" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N88" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B89" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C89" s="33"/>
       <c r="D89" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F89" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G89" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H89" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I89" s="35">
         <v>298</v>
@@ -5361,37 +5369,37 @@
       </c>
       <c r="K89" s="32"/>
       <c r="L89" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M89" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N89" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="36" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B90" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C90" s="33"/>
       <c r="D90" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E90" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F90" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G90" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H90" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I90" s="35">
         <v>298</v>
@@ -5401,37 +5409,37 @@
       </c>
       <c r="K90" s="32"/>
       <c r="L90" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M90" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N90" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="36" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C91" s="33"/>
       <c r="D91" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E91" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F91" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G91" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H91" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I91" s="35">
         <v>298</v>
@@ -5441,37 +5449,37 @@
       </c>
       <c r="K91" s="32"/>
       <c r="L91" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M91" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N91" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B92" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C92" s="33"/>
       <c r="D92" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E92" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F92" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G92" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H92" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I92" s="35">
         <v>298</v>
@@ -5481,37 +5489,37 @@
       </c>
       <c r="K92" s="32"/>
       <c r="L92" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M92" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N92" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="36" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B93" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C93" s="33"/>
       <c r="D93" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E93" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F93" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G93" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H93" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I93" s="35">
         <v>298</v>
@@ -5521,37 +5529,37 @@
       </c>
       <c r="K93" s="32"/>
       <c r="L93" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M93" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N93" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B94" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C94" s="33"/>
       <c r="D94" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E94" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F94" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G94" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H94" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I94" s="35">
         <v>298</v>
@@ -5561,37 +5569,37 @@
       </c>
       <c r="K94" s="32"/>
       <c r="L94" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M94" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N94" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C95" s="33"/>
       <c r="D95" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E95" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F95" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G95" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H95" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I95" s="35">
         <v>298</v>
@@ -5601,3456 +5609,3800 @@
       </c>
       <c r="K95" s="32"/>
       <c r="L95" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M95" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N95" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A96" s="36" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A96" s="36" t="s">
-        <v>157</v>
-      </c>
       <c r="B96" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C96" s="33"/>
       <c r="D96" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E96" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F96" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F96" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G96" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H96" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I96" s="35">
         <v>298</v>
       </c>
       <c r="J96">
-        <v>12.3058236</v>
+        <f>P96*1000000000</f>
+        <v>12305823600</v>
       </c>
       <c r="K96" s="32"/>
       <c r="L96" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M96" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N96" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P96">
+        <v>12.3058236</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B97" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C97" s="33"/>
       <c r="D97" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E97" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F97" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F97" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G97" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H97" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I97" s="35">
         <v>298</v>
       </c>
       <c r="J97">
-        <v>3.3451677000000002</v>
+        <f t="shared" ref="J97:J160" si="0">P97*1000000000</f>
+        <v>3345167700</v>
       </c>
       <c r="K97" s="32"/>
       <c r="L97" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M97" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N97" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P97">
+        <v>3.3451677000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B98" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C98" s="33"/>
       <c r="D98" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E98" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F98" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F98" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G98" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H98" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I98" s="35">
         <v>298</v>
       </c>
       <c r="J98">
-        <v>3.3216309000000002</v>
+        <f t="shared" si="0"/>
+        <v>3321630900</v>
       </c>
       <c r="K98" s="32"/>
       <c r="L98" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M98" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N98" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P98">
+        <v>3.3216309000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B99" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C99" s="33"/>
       <c r="D99" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E99" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F99" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F99" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G99" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H99" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I99" s="35">
         <v>298</v>
       </c>
       <c r="J99">
-        <v>3.2059082999999999</v>
+        <f t="shared" si="0"/>
+        <v>3205908300</v>
       </c>
       <c r="K99" s="32"/>
       <c r="L99" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M99" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N99" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P99">
+        <v>3.2059082999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B100" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C100" s="33"/>
       <c r="D100" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E100" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F100" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F100" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G100" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H100" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I100" s="35">
         <v>298</v>
       </c>
       <c r="J100">
-        <v>2.5380516000000002</v>
+        <f t="shared" si="0"/>
+        <v>2538051600</v>
       </c>
       <c r="K100" s="32"/>
       <c r="L100" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M100" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N100" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P100">
+        <v>2.5380516000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B101" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C101" s="33"/>
       <c r="D101" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E101" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F101" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F101" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G101" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H101" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I101" s="35">
         <v>298</v>
       </c>
       <c r="J101">
-        <v>5.7446137000000004</v>
+        <f t="shared" si="0"/>
+        <v>5744613700</v>
       </c>
       <c r="K101" s="32"/>
       <c r="L101" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M101" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N101" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P101">
+        <v>5.7446137000000004</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B102" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C102" s="33"/>
       <c r="D102" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E102" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F102" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F102" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G102" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H102" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I102" s="35">
         <v>298</v>
       </c>
       <c r="J102">
-        <v>6.2365982000000004</v>
+        <f t="shared" si="0"/>
+        <v>6236598200</v>
       </c>
       <c r="K102" s="32"/>
       <c r="L102" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M102" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N102" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P102">
+        <v>6.2365982000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B103" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C103" s="33"/>
       <c r="D103" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E103" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F103" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F103" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G103" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H103" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I103" s="35">
         <v>298</v>
       </c>
       <c r="J103">
-        <v>8.4559222999999992</v>
+        <f t="shared" si="0"/>
+        <v>8455922299.999999</v>
       </c>
       <c r="K103" s="32"/>
       <c r="L103" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M103" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N103" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P103">
+        <v>8.4559222999999992</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B104" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C104" s="33"/>
       <c r="D104" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E104" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F104" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F104" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G104" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H104" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I104" s="35">
         <v>298</v>
       </c>
       <c r="J104">
-        <v>10.5807723</v>
+        <f t="shared" si="0"/>
+        <v>10580772300</v>
       </c>
       <c r="K104" s="32"/>
       <c r="L104" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M104" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N104" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P104">
+        <v>10.5807723</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B105" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C105" s="33"/>
       <c r="D105" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E105" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F105" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F105" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G105" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H105" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I105" s="35">
         <v>298</v>
       </c>
       <c r="J105">
-        <v>7.9534770000000004</v>
+        <f t="shared" si="0"/>
+        <v>7953477000</v>
       </c>
       <c r="K105" s="32"/>
       <c r="L105" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M105" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N105" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P105">
+        <v>7.9534770000000004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="36" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B106" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C106" s="33"/>
       <c r="D106" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E106" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F106" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F106" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G106" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H106" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I106" s="35">
         <v>298</v>
       </c>
       <c r="J106">
-        <v>4.8051031000000002</v>
+        <f t="shared" si="0"/>
+        <v>4805103100</v>
       </c>
       <c r="K106" s="32"/>
       <c r="L106" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M106" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N106" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P106">
+        <v>4.8051031000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B107" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C107" s="33"/>
       <c r="D107" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E107" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F107" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F107" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G107" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H107" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I107" s="35">
         <v>298</v>
       </c>
       <c r="J107">
-        <v>10.9681488</v>
+        <f t="shared" si="0"/>
+        <v>10968148800</v>
       </c>
       <c r="K107" s="32"/>
       <c r="L107" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M107" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N107" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P107">
+        <v>10.9681488</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="36" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B108" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C108" s="33"/>
       <c r="D108" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E108" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F108" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F108" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G108" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H108" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I108" s="35">
         <v>298</v>
       </c>
       <c r="J108">
-        <v>10.6945335</v>
+        <f t="shared" si="0"/>
+        <v>10694533500</v>
       </c>
       <c r="K108" s="32"/>
       <c r="L108" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M108" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N108" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P108">
+        <v>10.6945335</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="36" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B109" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C109" s="33"/>
       <c r="D109" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E109" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F109" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F109" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G109" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H109" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I109" s="35">
         <v>298</v>
       </c>
       <c r="J109">
-        <v>8.7102505000000008</v>
+        <f t="shared" si="0"/>
+        <v>8710250500</v>
       </c>
       <c r="K109" s="32"/>
       <c r="L109" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M109" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N109" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P109">
+        <v>8.7102505000000008</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C110" s="33"/>
       <c r="D110" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E110" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F110" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F110" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G110" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H110" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I110" s="35">
         <v>298</v>
       </c>
       <c r="J110">
-        <v>7.9629570999999997</v>
+        <f t="shared" si="0"/>
+        <v>7962957100</v>
       </c>
       <c r="K110" s="32"/>
       <c r="L110" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M110" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N110" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P110">
+        <v>7.9629570999999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B111" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C111" s="33"/>
       <c r="D111" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E111" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F111" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F111" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G111" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H111" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I111" s="35">
         <v>298</v>
       </c>
       <c r="J111">
-        <v>4.6338074999999996</v>
+        <f t="shared" si="0"/>
+        <v>4633807500</v>
       </c>
       <c r="K111" s="32"/>
       <c r="L111" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N111" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P111">
+        <v>4.6338074999999996</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="36" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B112" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C112" s="33"/>
       <c r="D112" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E112" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F112" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F112" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G112" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H112" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I112" s="35">
         <v>298</v>
       </c>
       <c r="J112">
-        <v>5.9185245000000002</v>
+        <f t="shared" si="0"/>
+        <v>5918524500</v>
       </c>
       <c r="K112" s="32"/>
       <c r="L112" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M112" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N112" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P112">
+        <v>5.9185245000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B113" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C113" s="33"/>
       <c r="D113" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E113" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F113" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F113" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G113" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H113" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I113" s="35">
         <v>298</v>
       </c>
       <c r="J113">
-        <v>10.877924399999999</v>
+        <f t="shared" si="0"/>
+        <v>10877924400</v>
       </c>
       <c r="K113" s="32"/>
       <c r="L113" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M113" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N113" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P113">
+        <v>10.877924399999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B114" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C114" s="33"/>
       <c r="D114" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E114" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F114" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F114" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G114" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H114" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I114" s="35">
         <v>298</v>
       </c>
       <c r="J114">
-        <v>8.1865567000000006</v>
+        <f t="shared" si="0"/>
+        <v>8186556700.000001</v>
       </c>
       <c r="K114" s="32"/>
       <c r="L114" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M114" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N114" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P114">
+        <v>8.1865567000000006</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B115" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C115" s="33"/>
       <c r="D115" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E115" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F115" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F115" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G115" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H115" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I115" s="35">
         <v>298</v>
       </c>
       <c r="J115">
-        <v>10.778546800000001</v>
+        <f t="shared" si="0"/>
+        <v>10778546800</v>
       </c>
       <c r="K115" s="32"/>
       <c r="L115" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M115" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N115" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P115">
+        <v>10.778546800000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B116" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C116" s="33"/>
       <c r="D116" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E116" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F116" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F116" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G116" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H116" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I116" s="35">
         <v>298</v>
       </c>
       <c r="J116">
-        <v>7.3395587999999998</v>
+        <f t="shared" si="0"/>
+        <v>7339558800</v>
       </c>
       <c r="K116" s="32"/>
       <c r="L116" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M116" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N116" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P116">
+        <v>7.3395587999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="36" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B117" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C117" s="33"/>
       <c r="D117" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E117" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F117" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F117" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G117" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H117" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I117" s="35">
         <v>298</v>
       </c>
       <c r="J117">
-        <v>10.8118906</v>
+        <f t="shared" si="0"/>
+        <v>10811890600</v>
       </c>
       <c r="K117" s="32"/>
       <c r="L117" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M117" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N117" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P117">
+        <v>10.8118906</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="36" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B118" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C118" s="33"/>
       <c r="D118" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E118" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F118" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F118" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G118" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H118" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I118" s="35">
         <v>298</v>
       </c>
       <c r="J118">
-        <v>8.8691238999999999</v>
+        <f t="shared" si="0"/>
+        <v>8869123900</v>
       </c>
       <c r="K118" s="32"/>
       <c r="L118" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M118" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N118" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P118">
+        <v>8.8691238999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="36" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B119" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C119" s="33"/>
       <c r="D119" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E119" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F119" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F119" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G119" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H119" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I119" s="35">
         <v>298</v>
       </c>
       <c r="J119">
-        <v>8.4193095000000007</v>
+        <f t="shared" si="0"/>
+        <v>8419309500.000001</v>
       </c>
       <c r="K119" s="32"/>
       <c r="L119" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M119" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N119" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P119">
+        <v>8.4193095000000007</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B120" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C120" s="33"/>
       <c r="D120" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E120" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F120" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F120" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G120" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H120" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I120" s="35">
         <v>298</v>
       </c>
       <c r="J120">
-        <v>8.1623660999999998</v>
+        <f t="shared" si="0"/>
+        <v>8162366100</v>
       </c>
       <c r="K120" s="32"/>
       <c r="L120" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M120" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N120" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P120">
+        <v>8.1623660999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="36" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B121" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C121" s="33"/>
       <c r="D121" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E121" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F121" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F121" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G121" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H121" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I121" s="35">
         <v>298</v>
       </c>
       <c r="J121">
-        <v>7.9675336999999997</v>
+        <f t="shared" si="0"/>
+        <v>7967533700</v>
       </c>
       <c r="K121" s="32"/>
       <c r="L121" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M121" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N121" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P121">
+        <v>7.9675336999999997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B122" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C122" s="33"/>
       <c r="D122" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E122" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F122" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F122" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G122" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H122" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I122" s="35">
         <v>298</v>
       </c>
       <c r="J122">
-        <v>10.9344781</v>
+        <f t="shared" si="0"/>
+        <v>10934478100</v>
       </c>
       <c r="K122" s="32"/>
       <c r="L122" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M122" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N122" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P122">
+        <v>10.9344781</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B123" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C123" s="33"/>
       <c r="D123" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E123" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F123" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F123" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G123" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H123" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I123" s="35">
         <v>298</v>
       </c>
       <c r="J123">
-        <v>6.6334548</v>
+        <f t="shared" si="0"/>
+        <v>6633454800</v>
       </c>
       <c r="K123" s="32"/>
       <c r="L123" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M123" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N123" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P123">
+        <v>6.6334548</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B124" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C124" s="33"/>
       <c r="D124" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E124" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F124" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F124" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G124" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H124" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I124" s="35">
         <v>298</v>
       </c>
       <c r="J124">
-        <v>6.5147900999999999</v>
+        <f t="shared" si="0"/>
+        <v>6514790100</v>
       </c>
       <c r="K124" s="32"/>
       <c r="L124" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M124" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N124" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P124">
+        <v>6.5147900999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B125" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C125" s="33"/>
       <c r="D125" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E125" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F125" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F125" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G125" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H125" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I125" s="35">
         <v>298</v>
       </c>
       <c r="J125">
-        <v>11.0309136</v>
+        <f t="shared" si="0"/>
+        <v>11030913600</v>
       </c>
       <c r="K125" s="32"/>
       <c r="L125" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M125" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N125" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P125">
+        <v>11.0309136</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B126" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C126" s="33"/>
       <c r="D126" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E126" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F126" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F126" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G126" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H126" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I126" s="35">
         <v>298</v>
       </c>
       <c r="J126">
-        <v>4.6897073999999996</v>
+        <f t="shared" si="0"/>
+        <v>4689707400</v>
       </c>
       <c r="K126" s="32"/>
       <c r="L126" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M126" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N126" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P126">
+        <v>4.6897073999999996</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B127" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C127" s="33"/>
       <c r="D127" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E127" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F127" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F127" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G127" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H127" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I127" s="35">
         <v>298</v>
       </c>
       <c r="J127">
-        <v>6.1077995999999999</v>
+        <f t="shared" si="0"/>
+        <v>6107799600</v>
       </c>
       <c r="K127" s="32"/>
       <c r="L127" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M127" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N127" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P127">
+        <v>6.1077995999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="36" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B128" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C128" s="33"/>
       <c r="D128" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E128" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F128" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F128" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G128" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H128" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I128" s="35">
         <v>298</v>
       </c>
       <c r="J128">
-        <v>7.0708469999999997</v>
+        <f t="shared" si="0"/>
+        <v>7070847000</v>
       </c>
       <c r="K128" s="32"/>
       <c r="L128" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M128" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N128" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P128">
+        <v>7.0708469999999997</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B129" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C129" s="33"/>
       <c r="D129" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E129" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F129" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F129" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G129" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H129" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I129" s="35">
         <v>298</v>
       </c>
       <c r="J129">
-        <v>10.599405600000001</v>
+        <f t="shared" si="0"/>
+        <v>10599405600</v>
       </c>
       <c r="K129" s="32"/>
       <c r="L129" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M129" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N129" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P129">
+        <v>10.599405600000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="36" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B130" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C130" s="33"/>
       <c r="D130" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E130" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F130" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F130" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G130" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H130" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I130" s="35">
         <v>298</v>
       </c>
       <c r="J130">
-        <v>7.3993814999999996</v>
+        <f t="shared" si="0"/>
+        <v>7399381500</v>
       </c>
       <c r="K130" s="32"/>
       <c r="L130" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M130" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N130" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P130">
+        <v>7.3993814999999996</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B131" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C131" s="33"/>
       <c r="D131" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E131" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F131" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F131" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G131" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H131" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I131" s="35">
         <v>298</v>
       </c>
       <c r="J131">
-        <v>6.5147900999999999</v>
+        <f t="shared" si="0"/>
+        <v>6514790100</v>
       </c>
       <c r="K131" s="32"/>
       <c r="L131" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M131" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N131" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P131">
+        <v>6.5147900999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B132" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C132" s="33"/>
       <c r="D132" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E132" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F132" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F132" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G132" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H132" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I132" s="35">
         <v>298</v>
       </c>
       <c r="J132">
-        <v>7.1967034999999999</v>
+        <f t="shared" si="0"/>
+        <v>7196703500</v>
       </c>
       <c r="K132" s="32"/>
       <c r="L132" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M132" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N132" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P132">
+        <v>7.1967034999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="36" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B133" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C133" s="33"/>
       <c r="D133" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E133" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F133" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F133" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G133" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H133" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I133" s="35">
         <v>298</v>
       </c>
       <c r="J133">
-        <v>8.2140163000000008</v>
+        <f t="shared" si="0"/>
+        <v>8214016300.000001</v>
       </c>
       <c r="K133" s="32"/>
       <c r="L133" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M133" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N133" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P133">
+        <v>8.2140163000000008</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B134" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C134" s="33"/>
       <c r="D134" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E134" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F134" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F134" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G134" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H134" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I134" s="35">
         <v>298</v>
       </c>
       <c r="J134">
-        <v>7.5124889000000001</v>
+        <f t="shared" si="0"/>
+        <v>7512488900</v>
       </c>
       <c r="K134" s="32"/>
       <c r="L134" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M134" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N134" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P134">
+        <v>7.5124889000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B135" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C135" s="33"/>
       <c r="D135" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E135" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F135" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F135" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G135" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H135" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I135" s="35">
         <v>298</v>
       </c>
       <c r="J135">
-        <v>8.4186557000000004</v>
+        <f t="shared" si="0"/>
+        <v>8418655700</v>
       </c>
       <c r="K135" s="32"/>
       <c r="L135" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M135" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N135" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P135">
+        <v>8.4186557000000004</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B136" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C136" s="33"/>
       <c r="D136" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E136" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F136" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F136" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G136" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H136" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I136" s="35">
         <v>298</v>
       </c>
       <c r="J136">
-        <v>6.5834390999999997</v>
+        <f t="shared" si="0"/>
+        <v>6583439100</v>
       </c>
       <c r="K136" s="32"/>
       <c r="L136" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M136" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N136" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P136">
+        <v>6.5834390999999997</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B137" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C137" s="33"/>
       <c r="D137" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E137" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F137" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F137" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G137" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H137" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I137" s="35">
         <v>298</v>
       </c>
       <c r="J137">
-        <v>10.2545261</v>
+        <f t="shared" si="0"/>
+        <v>10254526100</v>
       </c>
       <c r="K137" s="32"/>
       <c r="L137" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M137" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N137" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P137">
+        <v>10.2545261</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B138" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C138" s="33"/>
       <c r="D138" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E138" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F138" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F138" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G138" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H138" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I138" s="35">
         <v>298</v>
       </c>
       <c r="J138">
-        <v>9.6138020999999991</v>
+        <f t="shared" si="0"/>
+        <v>9613802100</v>
       </c>
       <c r="K138" s="32"/>
       <c r="L138" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M138" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N138" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P138">
+        <v>9.6138020999999991</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B139" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C139" s="33"/>
       <c r="D139" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E139" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F139" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F139" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G139" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H139" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I139" s="35">
         <v>298</v>
       </c>
       <c r="J139">
-        <v>5.3219320000000003</v>
+        <f t="shared" si="0"/>
+        <v>5321932000</v>
       </c>
       <c r="K139" s="32"/>
       <c r="L139" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M139" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N139" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P139">
+        <v>5.3219320000000003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B140" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C140" s="33"/>
       <c r="D140" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E140" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F140" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F140" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G140" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H140" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I140" s="35">
         <v>298</v>
       </c>
       <c r="J140">
-        <v>5.7884183</v>
+        <f t="shared" si="0"/>
+        <v>5788418300</v>
       </c>
       <c r="K140" s="32"/>
       <c r="L140" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M140" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N140" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P140">
+        <v>5.7884183</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="36" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B141" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C141" s="33"/>
       <c r="D141" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E141" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F141" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F141" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G141" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H141" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I141" s="35">
         <v>298</v>
       </c>
       <c r="J141">
-        <v>8.1731537999999997</v>
+        <f t="shared" si="0"/>
+        <v>8173153800</v>
       </c>
       <c r="K141" s="32"/>
       <c r="L141" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M141" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N141" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P141">
+        <v>8.1731537999999997</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="36" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B142" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C142" s="33"/>
       <c r="D142" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E142" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F142" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F142" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G142" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H142" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I142" s="35">
         <v>298</v>
       </c>
       <c r="J142">
-        <v>8.1166000999999994</v>
+        <f t="shared" si="0"/>
+        <v>8116600099.999999</v>
       </c>
       <c r="K142" s="32"/>
       <c r="L142" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M142" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N142" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P142">
+        <v>8.1166000999999994</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="36" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C143" s="33"/>
       <c r="D143" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E143" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F143" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F143" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G143" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H143" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I143" s="35">
         <v>298</v>
       </c>
       <c r="J143">
-        <v>7.94367</v>
+        <f t="shared" si="0"/>
+        <v>7943670000</v>
       </c>
       <c r="K143" s="32"/>
       <c r="L143" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M143" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N143" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P143">
+        <v>7.94367</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="36" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B144" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C144" s="33"/>
       <c r="D144" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E144" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F144" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F144" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G144" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H144" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I144" s="35">
         <v>298</v>
       </c>
       <c r="J144">
-        <v>8.3261430000000001</v>
+        <f t="shared" si="0"/>
+        <v>8326143000</v>
       </c>
       <c r="K144" s="32"/>
       <c r="L144" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M144" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N144" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P144">
+        <v>8.3261430000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B145" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C145" s="33"/>
       <c r="D145" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E145" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F145" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F145" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G145" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H145" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I145" s="35">
         <v>298</v>
       </c>
       <c r="J145">
-        <v>8.2254577999999992</v>
+        <f t="shared" si="0"/>
+        <v>8225457799.999999</v>
       </c>
       <c r="K145" s="32"/>
       <c r="L145" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M145" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N145" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P145">
+        <v>8.2254577999999992</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B146" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C146" s="33"/>
       <c r="D146" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E146" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F146" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F146" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G146" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H146" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I146" s="35">
         <v>298</v>
       </c>
       <c r="J146">
-        <v>4.5442368999999996</v>
+        <f t="shared" si="0"/>
+        <v>4544236900</v>
       </c>
       <c r="K146" s="32"/>
       <c r="L146" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M146" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N146" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P146">
+        <v>4.5442368999999996</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B147" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C147" s="33"/>
       <c r="D147" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E147" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F147" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F147" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G147" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H147" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I147" s="35">
         <v>298</v>
       </c>
       <c r="J147">
-        <v>9.7318130000000007</v>
+        <f t="shared" si="0"/>
+        <v>9731813000</v>
       </c>
       <c r="K147" s="32"/>
       <c r="L147" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M147" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N147" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P147">
+        <v>9.7318130000000007</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="36" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B148" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C148" s="33"/>
       <c r="D148" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E148" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F148" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F148" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G148" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H148" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I148" s="35">
         <v>298</v>
       </c>
       <c r="J148">
-        <v>8.2006133999999999</v>
+        <f t="shared" si="0"/>
+        <v>8200613400</v>
       </c>
       <c r="K148" s="32"/>
       <c r="L148" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M148" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N148" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P148">
+        <v>8.2006133999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" s="36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B149" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C149" s="33"/>
       <c r="D149" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E149" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F149" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F149" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G149" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H149" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I149" s="35">
         <v>298</v>
       </c>
       <c r="J149">
-        <v>7.5088929999999996</v>
+        <f t="shared" si="0"/>
+        <v>7508893000</v>
       </c>
       <c r="K149" s="32"/>
       <c r="L149" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M149" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N149" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P149">
+        <v>7.5088929999999996</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B150" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C150" s="33"/>
       <c r="D150" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E150" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F150" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F150" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G150" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H150" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I150" s="35">
         <v>298</v>
       </c>
       <c r="J150">
-        <v>11.9642131</v>
+        <f t="shared" si="0"/>
+        <v>11964213100</v>
       </c>
       <c r="K150" s="32"/>
       <c r="L150" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M150" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N150" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P150">
+        <v>11.9642131</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B151" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C151" s="33"/>
       <c r="D151" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E151" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F151" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F151" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G151" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H151" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I151" s="35">
         <v>298</v>
       </c>
       <c r="J151">
-        <v>7.9789751999999998</v>
+        <f t="shared" si="0"/>
+        <v>7978975200</v>
       </c>
       <c r="K151" s="32"/>
       <c r="L151" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M151" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N151" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P151">
+        <v>7.9789751999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B152" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C152" s="33"/>
       <c r="D152" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E152" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F152" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F152" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G152" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H152" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I152" s="35">
         <v>298</v>
       </c>
       <c r="J152">
-        <v>10.4742029</v>
+        <f t="shared" si="0"/>
+        <v>10474202900</v>
       </c>
       <c r="K152" s="32"/>
       <c r="L152" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M152" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N152" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P152">
+        <v>10.4742029</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" s="36" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B153" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C153" s="33"/>
       <c r="D153" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E153" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F153" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F153" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G153" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H153" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I153" s="35">
         <v>298</v>
       </c>
       <c r="J153">
-        <v>8.1103889999999996</v>
+        <f t="shared" si="0"/>
+        <v>8110389000</v>
       </c>
       <c r="K153" s="32"/>
       <c r="L153" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M153" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N153" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P153">
+        <v>8.1103889999999996</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" s="36" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B154" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C154" s="33"/>
       <c r="D154" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E154" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F154" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F154" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G154" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H154" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I154" s="35">
         <v>298</v>
       </c>
       <c r="J154">
-        <v>9.0597066000000002</v>
+        <f t="shared" si="0"/>
+        <v>9059706600</v>
       </c>
       <c r="K154" s="32"/>
       <c r="L154" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M154" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N154" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P154">
+        <v>9.0597066000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B155" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C155" s="33"/>
       <c r="D155" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E155" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F155" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F155" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G155" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H155" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I155" s="35">
         <v>298</v>
       </c>
       <c r="J155">
-        <v>3.9146274999999999</v>
+        <f t="shared" si="0"/>
+        <v>3914627500</v>
       </c>
       <c r="K155" s="32"/>
       <c r="L155" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M155" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N155" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P155">
+        <v>3.9146274999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" s="36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B156" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C156" s="33"/>
       <c r="D156" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E156" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F156" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F156" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G156" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H156" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I156" s="35">
         <v>298</v>
       </c>
       <c r="J156">
-        <v>9.3516282999999998</v>
+        <f t="shared" si="0"/>
+        <v>9351628300</v>
       </c>
       <c r="K156" s="32"/>
       <c r="L156" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M156" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N156" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P156">
+        <v>9.3516282999999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" s="36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B157" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C157" s="33"/>
       <c r="D157" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E157" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F157" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F157" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G157" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H157" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I157" s="35">
         <v>298</v>
       </c>
       <c r="J157">
-        <v>9.6030143999999993</v>
+        <f t="shared" si="0"/>
+        <v>9603014400</v>
       </c>
       <c r="K157" s="32"/>
       <c r="L157" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M157" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N157" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P157">
+        <v>9.6030143999999993</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" s="36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B158" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C158" s="33"/>
       <c r="D158" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E158" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F158" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F158" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G158" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H158" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I158" s="35">
         <v>298</v>
       </c>
       <c r="J158">
-        <v>9.2780757999999999</v>
+        <f t="shared" si="0"/>
+        <v>9278075800</v>
       </c>
       <c r="K158" s="32"/>
       <c r="L158" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M158" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N158" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P158">
+        <v>9.2780757999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" s="36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B159" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C159" s="33"/>
       <c r="D159" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E159" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F159" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F159" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G159" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H159" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I159" s="35">
         <v>298</v>
       </c>
       <c r="J159">
-        <v>8.4055797000000005</v>
+        <f t="shared" si="0"/>
+        <v>8405579700.000001</v>
       </c>
       <c r="K159" s="32"/>
       <c r="L159" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M159" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N159" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P159">
+        <v>8.4055797000000005</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" s="36" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B160" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C160" s="33"/>
       <c r="D160" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E160" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F160" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F160" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G160" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H160" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I160" s="35">
         <v>298</v>
       </c>
       <c r="J160">
-        <v>11.0806024</v>
+        <f t="shared" si="0"/>
+        <v>11080602400</v>
       </c>
       <c r="K160" s="32"/>
       <c r="L160" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M160" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N160" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P160">
+        <v>11.0806024</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" s="36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B161" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C161" s="33"/>
       <c r="D161" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E161" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F161" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F161" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G161" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H161" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I161" s="35">
         <v>298</v>
       </c>
       <c r="J161">
-        <v>10.212356</v>
+        <f t="shared" ref="J161:J181" si="1">P161*1000000000</f>
+        <v>10212356000</v>
       </c>
       <c r="K161" s="32"/>
       <c r="L161" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M161" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N161" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P161">
+        <v>10.212356</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" s="36" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B162" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C162" s="33"/>
       <c r="D162" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E162" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F162" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F162" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G162" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H162" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I162" s="35">
         <v>298</v>
       </c>
       <c r="J162">
-        <v>10.273813199999999</v>
+        <f t="shared" si="1"/>
+        <v>10273813200</v>
       </c>
       <c r="K162" s="32"/>
       <c r="L162" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M162" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N162" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P162">
+        <v>10.273813199999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" s="36" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B163" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C163" s="33"/>
       <c r="D163" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E163" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F163" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F163" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G163" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H163" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I163" s="35">
         <v>298</v>
       </c>
       <c r="J163">
-        <v>4.4098810000000004</v>
+        <f t="shared" si="1"/>
+        <v>4409881000</v>
       </c>
       <c r="K163" s="32"/>
       <c r="L163" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M163" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N163" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P163">
+        <v>4.4098810000000004</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" s="36" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B164" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C164" s="33"/>
       <c r="D164" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E164" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F164" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F164" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G164" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H164" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I164" s="35">
         <v>298</v>
       </c>
       <c r="J164">
-        <v>11.196651900000001</v>
+        <f t="shared" si="1"/>
+        <v>11196651900</v>
       </c>
       <c r="K164" s="32"/>
       <c r="L164" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M164" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N164" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P164">
+        <v>11.196651900000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" s="36" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B165" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C165" s="33"/>
       <c r="D165" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E165" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F165" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F165" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G165" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H165" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I165" s="35">
         <v>298</v>
       </c>
       <c r="J165">
-        <v>12.8586115</v>
+        <f t="shared" si="1"/>
+        <v>12858611500</v>
       </c>
       <c r="K165" s="32"/>
       <c r="L165" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M165" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N165" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P165">
+        <v>12.8586115</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" s="36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B166" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C166" s="33"/>
       <c r="D166" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E166" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F166" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F166" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G166" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H166" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I166" s="35">
         <v>298</v>
       </c>
       <c r="J166">
-        <v>11.4146942</v>
+        <f t="shared" si="1"/>
+        <v>11414694200</v>
       </c>
       <c r="K166" s="32"/>
       <c r="L166" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M166" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N166" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P166">
+        <v>11.4146942</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" s="36" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B167" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C167" s="33"/>
       <c r="D167" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E167" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F167" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F167" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G167" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H167" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I167" s="35">
         <v>298</v>
       </c>
       <c r="J167">
-        <v>5.1280802999999997</v>
+        <f t="shared" si="1"/>
+        <v>5128080300</v>
       </c>
       <c r="K167" s="32"/>
       <c r="L167" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M167" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N167" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P167">
+        <v>5.1280802999999997</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" s="36" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B168" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C168" s="33"/>
       <c r="D168" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E168" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F168" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F168" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G168" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H168" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I168" s="35">
         <v>298</v>
       </c>
       <c r="J168">
-        <v>5.7704388</v>
+        <f t="shared" si="1"/>
+        <v>5770438800</v>
       </c>
       <c r="K168" s="32"/>
       <c r="L168" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M168" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N168" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P168">
+        <v>5.7704388</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" s="36" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B169" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C169" s="33"/>
       <c r="D169" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E169" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F169" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F169" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G169" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H169" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I169" s="35">
         <v>298</v>
       </c>
       <c r="J169">
-        <v>4.0025636000000002</v>
+        <f t="shared" si="1"/>
+        <v>4002563600</v>
       </c>
       <c r="K169" s="32"/>
       <c r="L169" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M169" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N169" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P169">
+        <v>4.0025636000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" s="36" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B170" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C170" s="33"/>
       <c r="D170" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E170" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F170" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F170" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G170" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H170" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I170" s="35">
         <v>298</v>
       </c>
       <c r="J170">
-        <v>6.4141048999999999</v>
+        <f t="shared" si="1"/>
+        <v>6414104900</v>
       </c>
       <c r="K170" s="32"/>
       <c r="L170" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M170" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N170" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P170">
+        <v>6.4141048999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" s="36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B171" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C171" s="33"/>
       <c r="D171" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E171" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F171" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F171" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G171" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H171" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I171" s="35">
         <v>298</v>
       </c>
       <c r="J171">
-        <v>4.4151113999999998</v>
+        <f t="shared" si="1"/>
+        <v>4415111400</v>
       </c>
       <c r="K171" s="32"/>
       <c r="L171" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M171" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N171" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P171">
+        <v>4.4151113999999998</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" s="36" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B172" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C172" s="33"/>
       <c r="D172" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E172" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F172" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F172" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G172" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H172" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I172" s="35">
         <v>298</v>
       </c>
       <c r="J172">
-        <v>4.8917316</v>
+        <f t="shared" si="1"/>
+        <v>4891731600</v>
       </c>
       <c r="K172" s="32"/>
       <c r="L172" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M172" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N172" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P172">
+        <v>4.8917316</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B173" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C173" s="33"/>
       <c r="D173" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E173" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F173" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F173" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G173" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H173" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I173" s="35">
         <v>298</v>
       </c>
       <c r="J173">
-        <v>4.1905311000000003</v>
+        <f t="shared" si="1"/>
+        <v>4190531100.0000005</v>
       </c>
       <c r="K173" s="32"/>
       <c r="L173" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M173" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N173" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P173">
+        <v>4.1905311000000003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" s="36" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B174" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C174" s="33"/>
       <c r="D174" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E174" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F174" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F174" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G174" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H174" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I174" s="35">
         <v>298</v>
       </c>
       <c r="J174">
-        <v>4.9172298000000003</v>
+        <f t="shared" si="1"/>
+        <v>4917229800</v>
       </c>
       <c r="K174" s="32"/>
       <c r="L174" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M174" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N174" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P174">
+        <v>4.9172298000000003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" s="36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B175" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C175" s="33"/>
       <c r="D175" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E175" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F175" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F175" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G175" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H175" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I175" s="35">
         <v>298</v>
       </c>
       <c r="J175">
-        <v>5.5945666000000003</v>
+        <f t="shared" si="1"/>
+        <v>5594566600</v>
       </c>
       <c r="K175" s="32"/>
       <c r="L175" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M175" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N175" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P175">
+        <v>5.5945666000000003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" s="36" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B176" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C176" s="33"/>
       <c r="D176" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E176" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F176" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F176" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G176" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H176" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I176" s="35">
         <v>298</v>
       </c>
       <c r="J176">
-        <v>3.1781218</v>
+        <f t="shared" si="1"/>
+        <v>3178121800</v>
       </c>
       <c r="K176" s="32"/>
       <c r="L176" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M176" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N176" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P176">
+        <v>3.1781218</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="36" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B177" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C177" s="33"/>
       <c r="D177" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E177" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F177" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F177" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G177" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H177" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I177" s="35">
         <v>298</v>
       </c>
       <c r="J177">
-        <v>6.0447078999999997</v>
+        <f t="shared" si="1"/>
+        <v>6044707900</v>
       </c>
       <c r="K177" s="32"/>
       <c r="L177" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M177" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N177" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P177">
+        <v>6.0447078999999997</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B178" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C178" s="33"/>
       <c r="D178" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E178" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F178" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F178" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G178" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H178" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I178" s="35">
         <v>298</v>
       </c>
       <c r="J178">
-        <v>3.4507563999999999</v>
+        <f t="shared" si="1"/>
+        <v>3450756400</v>
       </c>
       <c r="K178" s="32"/>
       <c r="L178" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M178" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N178" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P178">
+        <v>3.4507563999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" s="36" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B179" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C179" s="33"/>
       <c r="D179" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E179" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F179" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F179" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G179" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H179" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I179" s="35">
         <v>298</v>
       </c>
       <c r="J179">
-        <v>9.1989660000000004</v>
+        <f t="shared" si="1"/>
+        <v>9198966000</v>
       </c>
       <c r="K179" s="32"/>
       <c r="L179" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M179" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N179" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P179">
+        <v>9.1989660000000004</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" s="36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B180" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C180" s="33"/>
       <c r="D180" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E180" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F180" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F180" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G180" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H180" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I180" s="35">
         <v>298</v>
       </c>
       <c r="J180">
-        <v>10.634710800000001</v>
+        <f t="shared" si="1"/>
+        <v>10634710800</v>
       </c>
       <c r="K180" s="32"/>
       <c r="L180" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M180" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N180" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P180">
+        <v>10.634710800000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" s="36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B181" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C181" s="33"/>
       <c r="D181" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E181" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F181" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F181" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="G181" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H181" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I181" s="35">
         <v>298</v>
       </c>
       <c r="J181">
-        <v>5.9005450000000002</v>
+        <f t="shared" si="1"/>
+        <v>5900545000</v>
       </c>
       <c r="K181" s="32"/>
       <c r="L181" s="20" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M181" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N181" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P181">
+        <v>5.9005450000000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" s="36"/>
       <c r="B182" s="20"/>
       <c r="C182" s="33"/>
@@ -9066,7 +9418,7 @@
       <c r="M182" s="20"/>
       <c r="N182" s="20"/>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" s="36"/>
       <c r="B183" s="20"/>
       <c r="C183" s="33"/>
@@ -9082,7 +9434,7 @@
       <c r="M183" s="20"/>
       <c r="N183" s="20"/>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" s="36"/>
       <c r="B184" s="20"/>
       <c r="C184" s="33"/>
@@ -9098,7 +9450,7 @@
       <c r="M184" s="20"/>
       <c r="N184" s="20"/>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" s="36"/>
       <c r="B185" s="20"/>
       <c r="C185" s="33"/>
@@ -9114,7 +9466,7 @@
       <c r="M185" s="20"/>
       <c r="N185" s="20"/>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" s="36"/>
       <c r="B186" s="20"/>
       <c r="C186" s="33"/>
@@ -9130,7 +9482,7 @@
       <c r="M186" s="20"/>
       <c r="N186" s="20"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" s="36"/>
       <c r="B187" s="20"/>
       <c r="C187" s="33"/>
@@ -9146,7 +9498,7 @@
       <c r="M187" s="20"/>
       <c r="N187" s="20"/>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" s="36"/>
       <c r="B188" s="20"/>
       <c r="C188" s="33"/>
@@ -9162,7 +9514,7 @@
       <c r="M188" s="20"/>
       <c r="N188" s="20"/>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" s="36"/>
       <c r="B189" s="20"/>
       <c r="C189" s="33"/>
@@ -9178,7 +9530,7 @@
       <c r="M189" s="20"/>
       <c r="N189" s="20"/>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" s="36"/>
       <c r="B190" s="20"/>
       <c r="C190" s="33"/>
@@ -9194,7 +9546,7 @@
       <c r="M190" s="20"/>
       <c r="N190" s="20"/>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" s="36"/>
       <c r="B191" s="20"/>
       <c r="C191" s="33"/>
@@ -9210,7 +9562,7 @@
       <c r="M191" s="20"/>
       <c r="N191" s="20"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" s="36"/>
       <c r="B192" s="20"/>
       <c r="C192" s="33"/>
@@ -12567,6 +12919,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -12581,11 +12938,6 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
